--- a/UnitTestWordMerge/Resources/Insert.xlsx
+++ b/UnitTestWordMerge/Resources/Insert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zenpl\source\repos\TestWordMerge\UnitTestWordMerge\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051490B4-3697-4AFB-89A7-DA36C92A16C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289ECB86-7FE2-43F6-AEC7-B0190263DCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6900" yWindow="2940" windowWidth="30960" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,16 +66,134 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -83,48 +201,140 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="8">
+    <cellStyle name="Colore 2" xfId="6" builtinId="33"/>
+    <cellStyle name="Colore 5" xfId="7" builtinId="45"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
+    <cellStyle name="Neutrale" xfId="3" builtinId="28"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="5" builtinId="21"/>
+    <cellStyle name="Valore non valido" xfId="2" builtinId="27"/>
+    <cellStyle name="Valore valido" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -141,19 +351,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4B65641-D145-4C91-AC5F-1903CDA59743}" name="Tabella1" displayName="Tabella1" ref="A1:H7" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4B65641-D145-4C91-AC5F-1903CDA59743}" name="Tabella1" displayName="Tabella1" ref="A1:H7" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowCellStyle="Output" dataCellStyle="Normale">
   <autoFilter ref="A1:H7" xr:uid="{B4B65641-D145-4C91-AC5F-1903CDA59743}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5B338917-7914-4519-865F-B19743C764EC}" name="Colonna1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{021C40AD-E5DF-4C75-B95D-9BC7B00135EF}" name="Colonna2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{0B795CA8-5959-4D48-A639-CA31B41B8EF4}" name="Colonna3" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{067F8425-0E38-44C2-AC79-DA4B038ECA5B}" name="Colonna4" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{8F14F037-44CA-4618-BACE-D0CC2AEB3B54}" name="Colonna5" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{A3941ADA-3A28-4C09-BAA6-20FBAA086970}" name="Colonna6" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{BA3D572F-CD35-47E1-B56D-3E395C2EE392}" name="Colonna7" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{353034B7-353C-4D06-B835-5EF682FE3750}" name="Colonna8" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5B338917-7914-4519-865F-B19743C764EC}" name="Colonna1" dataDxfId="9" dataCellStyle="Normale"/>
+    <tableColumn id="2" xr3:uid="{021C40AD-E5DF-4C75-B95D-9BC7B00135EF}" name="Colonna2" dataDxfId="8" dataCellStyle="Normale"/>
+    <tableColumn id="3" xr3:uid="{0B795CA8-5959-4D48-A639-CA31B41B8EF4}" name="Colonna3" dataDxfId="7" dataCellStyle="Normale"/>
+    <tableColumn id="4" xr3:uid="{067F8425-0E38-44C2-AC79-DA4B038ECA5B}" name="Colonna4" dataDxfId="6" dataCellStyle="Normale"/>
+    <tableColumn id="5" xr3:uid="{8F14F037-44CA-4618-BACE-D0CC2AEB3B54}" name="Colonna5" dataDxfId="5" dataCellStyle="Normale"/>
+    <tableColumn id="6" xr3:uid="{A3941ADA-3A28-4C09-BAA6-20FBAA086970}" name="Colonna6" dataDxfId="4" dataCellStyle="Normale"/>
+    <tableColumn id="7" xr3:uid="{BA3D572F-CD35-47E1-B56D-3E395C2EE392}" name="Colonna7" dataDxfId="3" dataCellStyle="Normale"/>
+    <tableColumn id="8" xr3:uid="{353034B7-353C-4D06-B835-5EF682FE3750}" name="Colonna8" dataDxfId="2" dataCellStyle="Normale"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -422,7 +632,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -456,165 +668,166 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>